--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cfh-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cfh-Itgam.xlsx
@@ -531,52 +531,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6849806666666666</v>
+        <v>1.424577333333334</v>
       </c>
       <c r="H2">
-        <v>2.054942</v>
+        <v>4.273732000000001</v>
       </c>
       <c r="I2">
-        <v>0.005384415753505336</v>
+        <v>0.009249507402003717</v>
       </c>
       <c r="J2">
-        <v>0.005384415753505335</v>
+        <v>0.009249507402003719</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.5850973333333335</v>
+        <v>0.02725333333333333</v>
       </c>
       <c r="N2">
-        <v>1.755292</v>
+        <v>0.08176</v>
       </c>
       <c r="O2">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884383</v>
       </c>
       <c r="P2">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884382</v>
       </c>
       <c r="Q2">
-        <v>0.4007803614515556</v>
+        <v>0.03882448092444445</v>
       </c>
       <c r="R2">
-        <v>3.607023253064</v>
+        <v>0.3494203283200001</v>
       </c>
       <c r="S2">
-        <v>6.772678874354236E-05</v>
+        <v>6.557166682032603E-06</v>
       </c>
       <c r="T2">
-        <v>6.772678874354234E-05</v>
+        <v>6.557166682032603E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6849806666666666</v>
+        <v>1.424577333333334</v>
       </c>
       <c r="H3">
-        <v>2.054942</v>
+        <v>4.273732000000001</v>
       </c>
       <c r="I3">
-        <v>0.005384415753505336</v>
+        <v>0.009249507402003717</v>
       </c>
       <c r="J3">
-        <v>0.005384415753505335</v>
+        <v>0.009249507402003719</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.931316</v>
+        <v>38.416166</v>
       </c>
       <c r="N3">
-        <v>137.793948</v>
+        <v>115.248498</v>
       </c>
       <c r="O3">
-        <v>0.9874217014725413</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="P3">
-        <v>0.9874217014725412</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="Q3">
-        <v>31.46206345455733</v>
+        <v>54.72679931717067</v>
       </c>
       <c r="R3">
-        <v>283.158571091016</v>
+        <v>492.5411938545361</v>
       </c>
       <c r="S3">
-        <v>0.005316688964761795</v>
+        <v>0.009242950235321686</v>
       </c>
       <c r="T3">
-        <v>0.005316688964761793</v>
+        <v>0.009242950235321687</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,40 +667,40 @@
         <v>291.268234</v>
       </c>
       <c r="I4">
-        <v>0.7631890669640694</v>
+        <v>0.6303829267608616</v>
       </c>
       <c r="J4">
-        <v>0.7631890669640694</v>
+        <v>0.6303829267608616</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.5850973333333335</v>
+        <v>0.02725333333333333</v>
       </c>
       <c r="N4">
-        <v>1.755292</v>
+        <v>0.08176</v>
       </c>
       <c r="O4">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884383</v>
       </c>
       <c r="P4">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884382</v>
       </c>
       <c r="Q4">
-        <v>56.80675566603646</v>
+        <v>2.646010090204444</v>
       </c>
       <c r="R4">
-        <v>511.2608009943281</v>
+        <v>23.81409081184</v>
       </c>
       <c r="S4">
-        <v>0.009599619917166843</v>
+        <v>0.0004468914661750609</v>
       </c>
       <c r="T4">
-        <v>0.009599619917166841</v>
+        <v>0.0004468914661750609</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>291.268234</v>
       </c>
       <c r="I5">
-        <v>0.7631890669640694</v>
+        <v>0.6303829267608616</v>
       </c>
       <c r="J5">
-        <v>0.7631890669640694</v>
+        <v>0.6303829267608616</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.931316</v>
+        <v>38.416166</v>
       </c>
       <c r="N5">
-        <v>137.793948</v>
+        <v>115.248498</v>
       </c>
       <c r="O5">
-        <v>0.9874217014725413</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="P5">
-        <v>0.9874217014725412</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="Q5">
-        <v>4459.444432205315</v>
+        <v>3729.802942623614</v>
       </c>
       <c r="R5">
-        <v>40134.99988984783</v>
+        <v>33568.22648361253</v>
       </c>
       <c r="S5">
-        <v>0.7535894470469027</v>
+        <v>0.6299360352946866</v>
       </c>
       <c r="T5">
-        <v>0.7535894470469026</v>
+        <v>0.6299360352946866</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.43813466666667</v>
+        <v>31.31606233333333</v>
       </c>
       <c r="H6">
-        <v>31.314404</v>
+        <v>93.94818699999999</v>
       </c>
       <c r="I6">
-        <v>0.0820508657710196</v>
+        <v>0.2033291865426586</v>
       </c>
       <c r="J6">
-        <v>0.08205086577101958</v>
+        <v>0.2033291865426586</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.5850973333333335</v>
+        <v>0.02725333333333333</v>
       </c>
       <c r="N6">
-        <v>1.755292</v>
+        <v>0.08176</v>
       </c>
       <c r="O6">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884383</v>
       </c>
       <c r="P6">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884382</v>
       </c>
       <c r="Q6">
-        <v>6.10732475844089</v>
+        <v>0.8534670854577777</v>
       </c>
       <c r="R6">
-        <v>54.96592282596801</v>
+        <v>7.681203769119999</v>
       </c>
       <c r="S6">
-        <v>0.001032060284104339</v>
+        <v>0.0001441442565031613</v>
       </c>
       <c r="T6">
-        <v>0.001032060284104339</v>
+        <v>0.0001441442565031612</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.43813466666667</v>
+        <v>31.31606233333333</v>
       </c>
       <c r="H7">
-        <v>31.314404</v>
+        <v>93.94818699999999</v>
       </c>
       <c r="I7">
-        <v>0.0820508657710196</v>
+        <v>0.2033291865426586</v>
       </c>
       <c r="J7">
-        <v>0.08205086577101958</v>
+        <v>0.2033291865426586</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.931316</v>
+        <v>38.416166</v>
       </c>
       <c r="N7">
-        <v>137.793948</v>
+        <v>115.248498</v>
       </c>
       <c r="O7">
-        <v>0.9874217014725413</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="P7">
-        <v>0.9874217014725412</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="Q7">
-        <v>479.4372618252214</v>
+        <v>1203.04304906368</v>
       </c>
       <c r="R7">
-        <v>4314.935356426992</v>
+        <v>10827.38744157312</v>
       </c>
       <c r="S7">
-        <v>0.08101880548691527</v>
+        <v>0.2031850422861554</v>
       </c>
       <c r="T7">
-        <v>0.08101880548691524</v>
+        <v>0.2031850422861554</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.002885</v>
+        <v>24.18651133333333</v>
       </c>
       <c r="H8">
-        <v>57.008655</v>
+        <v>72.559534</v>
       </c>
       <c r="I8">
-        <v>0.1493756515114056</v>
+        <v>0.1570383792944762</v>
       </c>
       <c r="J8">
-        <v>0.1493756515114056</v>
+        <v>0.1570383792944762</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.5850973333333335</v>
+        <v>0.02725333333333333</v>
       </c>
       <c r="N8">
-        <v>1.755292</v>
+        <v>0.08176</v>
       </c>
       <c r="O8">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884383</v>
       </c>
       <c r="P8">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884382</v>
       </c>
       <c r="Q8">
-        <v>11.11853733914</v>
+        <v>0.6591630555377778</v>
       </c>
       <c r="R8">
-        <v>100.06683605226</v>
+        <v>5.93246749984</v>
       </c>
       <c r="S8">
-        <v>0.001878891537444118</v>
+        <v>0.0001113277479281835</v>
       </c>
       <c r="T8">
-        <v>0.001878891537444118</v>
+        <v>0.0001113277479281836</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.002885</v>
+        <v>24.18651133333333</v>
       </c>
       <c r="H9">
-        <v>57.008655</v>
+        <v>72.559534</v>
       </c>
       <c r="I9">
-        <v>0.1493756515114056</v>
+        <v>0.1570383792944762</v>
       </c>
       <c r="J9">
-        <v>0.1493756515114056</v>
+        <v>0.1570383792944762</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.931316</v>
+        <v>38.416166</v>
       </c>
       <c r="N9">
-        <v>137.793948</v>
+        <v>115.248498</v>
       </c>
       <c r="O9">
-        <v>0.9874217014725413</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="P9">
-        <v>0.9874217014725412</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="Q9">
-        <v>872.8275158466602</v>
+        <v>929.1530343422145</v>
       </c>
       <c r="R9">
-        <v>7855.447642619941</v>
+        <v>8362.377309079931</v>
       </c>
       <c r="S9">
-        <v>0.1474967599739615</v>
+        <v>0.156927051546548</v>
       </c>
       <c r="T9">
-        <v>0.1474967599739615</v>
+        <v>0.156927051546548</v>
       </c>
     </row>
   </sheetData>
